--- a/settings/sample/示例.xlsx
+++ b/settings/sample/示例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32205" windowHeight="18060" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="12080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="~首页" sheetId="2" r:id="rId1"/>
@@ -1375,14 +1375,14 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
-    <row r="2" ht="89.25" spans="2:2">
+    <row r="2" ht="89" spans="2:2">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="89.25" spans="2:2">
+    <row r="3" ht="89" spans="2:2">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1398,11 +1398,11 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="4" max="4" width="64.875" customWidth="1"/>
     <col min="8" max="8" width="10.25" customWidth="1"/>
@@ -1564,7 +1564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" ht="42.75" spans="1:16">
+    <row r="4" ht="42" spans="1:16">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" ht="57" spans="1:12">
+    <row r="8" ht="56" spans="1:12">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1702,7 +1702,7 @@
       <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="4" max="4" width="64.875" customWidth="1"/>
     <col min="8" max="8" width="10.25" customWidth="1"/>
@@ -1977,7 +1977,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" ht="57" spans="1:12">
+    <row r="8" ht="56" spans="1:12">
       <c r="A8">
         <v>5</v>
       </c>
